--- a/EMAIL_LIST (2).xlsx
+++ b/EMAIL_LIST (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="GMAIL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>Password</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>sarbesh@twoway.site</t>
+  </si>
+  <si>
+    <t>phragmitessoultion@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -704,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1295,18 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="21"/>
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="21"/>
@@ -1301,9 +1315,11 @@
   <hyperlinks>
     <hyperlink ref="B37" r:id="rId1"/>
     <hyperlink ref="F37" r:id="rId2"/>
+    <hyperlink ref="B38" r:id="rId3"/>
+    <hyperlink ref="F38" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1311,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
